--- a/Presentation_Lahman.xlsx
+++ b/Presentation_Lahman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\NSS_Data_Analytics\projects\lahaman-baseball-KristenLucas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B7C8D-5405-4615-B0D4-51D049C54516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D756B8-63A9-4049-89E6-956E18002D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DB0C0553-2BED-4B0D-B734-BF56A7CE82F9}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -185,7 +185,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -238,12 +238,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Top 10 </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" b="1"/>
               <a:t>Vandy</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Players Top 10 Salaries</a:t>
+              <a:t> Players Salaries</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3136,16 +3142,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>97155</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>97155</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>521969</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3172,16 +3178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>116204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3209,15 +3215,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3244,12 +3250,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6303392" cy="718466"/>
+    <xdr:ext cx="6475234" cy="718466"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4">
@@ -3263,8 +3269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4884420" y="312420"/>
-          <a:ext cx="6303392" cy="718466"/>
+          <a:off x="4783455" y="312420"/>
+          <a:ext cx="6475234" cy="718466"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3297,9 +3303,193 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="4000" baseline="0"/>
-            <a:t> Presenation</a:t>
+            <a:t> Presentation</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7724615" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46DD2D0-B975-42F6-8129-D8B50CDECE7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="3055620"/>
+          <a:ext cx="7724615" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0"/>
+            <a:t>David Price is cool and all, but how much did other Vandy Players make?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8832931" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92174030-DD83-4170-AB8A-435325A3E401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="11822430"/>
+          <a:ext cx="8832931" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>David Price</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t> made a lot, but what it that like compared to other highly paid players?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11550278" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EADB8B-565C-4094-9E84-E152AE223B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="19983450"/>
+          <a:ext cx="11550278" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>Since</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t> this all started with schools, is there any relationship to the schools these top 10 went to? Any overlap?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3829,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECD2B4E-4F8F-4080-8E5C-EF0CFBF5DD05}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="W86" sqref="W86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
